--- a/health-bio-vol-over-1.2m-over-0.5d.xlsx
+++ b/health-bio-vol-over-1.2m-over-0.5d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1100193/_Src_python/src/stock-gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EricAhn/_Python/stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC2EEE-4E0E-8645-98BC-A6F48203C354}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67450E9F-70CD-6A4F-BE44-2DD6B60512A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59500" yWindow="460" windowWidth="31140" windowHeight="28340" xr2:uid="{C2BB5CBF-AD1D-0148-B1EC-F37D97BAFAE6}"/>
+    <workbookView xWindow="15800" yWindow="460" windowWidth="22600" windowHeight="23540" xr2:uid="{C2BB5CBF-AD1D-0148-B1EC-F37D97BAFAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -465,18 +465,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -555,7 +555,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -869,18 +869,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE076B2A-77DE-B442-A822-F5E20F96476A}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F19"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38">
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
@@ -898,7 +898,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -907,17 +907,17 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
-        <v>0.56659999999999999</v>
+        <v>0.53720000000000001</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="1" t="e">
-        <f>E2*100 / D2</f>
+        <f t="shared" ref="F2:F33" si="0">E2*100 / D2</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -926,17 +926,17 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>0.66</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F3" s="1" t="e">
-        <f>E3*100 / D3</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -945,17 +945,17 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>0.69010000000000005</v>
+        <v>0.65849999999999997</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F4" s="1" t="e">
-        <f>E4*100 / D4</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>11</v>
       </c>
@@ -964,17 +964,17 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>0.71</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F5" s="1" t="e">
-        <f>E5*100 / D5</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -983,17 +983,17 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F6" s="1" t="e">
-        <f>E6*100 / D6</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>18</v>
       </c>
@@ -1002,17 +1002,17 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>0.86</v>
+        <v>0.878</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F7" s="1" t="e">
-        <f>E7*100 / D7</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>12</v>
       </c>
@@ -1021,17 +1021,17 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>0.88990000000000002</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="1" t="e">
-        <f>E8*100 / D8</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>21</v>
       </c>
@@ -1040,17 +1040,17 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>1.26</v>
+        <v>1.2889999999999999</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F9" s="1" t="e">
-        <f>E9*100 / D9</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>35</v>
       </c>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <v>1.375</v>
+        <v>1.3293999999999999</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="1" t="e">
-        <f>E10*100 / D10</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>30</v>
       </c>
@@ -1078,17 +1078,17 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="1" t="e">
-        <f>E11*100 / D11</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>31</v>
       </c>
@@ -1097,17 +1097,17 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <v>1.56</v>
+        <v>1.6298999999999999</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F12" s="1" t="e">
-        <f>E12*100 / D12</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>29</v>
       </c>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <v>1.72</v>
+        <v>1.6235999999999999</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="1" t="e">
-        <f>E13*100 / D13</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>62</v>
       </c>
@@ -1135,17 +1135,17 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <v>3.96</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F14" s="1" t="e">
-        <f>E14*100 / D14</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>63</v>
       </c>
@@ -1154,17 +1154,17 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F15" s="1" t="e">
-        <f>E15*100 / D15</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>66</v>
       </c>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F16" s="1" t="e">
-        <f>E16*100 / D16</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>73</v>
       </c>
@@ -1192,17 +1192,17 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
-        <v>6.45</v>
+        <v>6.27</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F17" s="1" t="e">
-        <f>E17*100 / D17</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>91</v>
       </c>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <v>12.18</v>
+        <v>12.37</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F18" s="1" t="e">
-        <f>E18*100 / D18</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1">
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>6</v>
       </c>
@@ -1230,17 +1230,17 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
-        <v>0.62160000000000004</v>
+        <v>0.58260000000000001</v>
       </c>
       <c r="E19" s="5">
         <v>5</v>
       </c>
       <c r="F19" s="5">
-        <f>E19*100 / D19</f>
-        <v>804.37580437580436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="6" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>858.22176450394784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>96</v>
       </c>
@@ -1249,17 +1249,17 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
-        <v>14.63</v>
+        <v>14.3</v>
       </c>
       <c r="E20" s="5">
         <v>107.78</v>
       </c>
       <c r="F20" s="5">
-        <f>E20*100 / D20</f>
-        <v>736.70539986329459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="6" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>753.70629370629365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
-        <v>0.88829999999999998</v>
+        <v>0.90039999999999998</v>
       </c>
       <c r="E21" s="5">
         <v>4.92</v>
       </c>
       <c r="F21" s="5">
-        <f>E21*100 / D21</f>
-        <v>553.86693684566023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="6" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>546.42381163927143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>13</v>
       </c>
@@ -1287,17 +1287,17 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
-        <v>0.80969999999999998</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="E22" s="5">
         <v>4.33</v>
       </c>
       <c r="F22" s="5">
-        <f>E22*100 / D22</f>
-        <v>534.76596270223536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="6" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>527.40560292326438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>34</v>
       </c>
@@ -1306,17 +1306,17 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="E23" s="5">
         <v>8.61</v>
       </c>
       <c r="F23" s="5">
-        <f>E23*100 / D23</f>
-        <v>521.81818181818187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>506.47058823529414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>26</v>
       </c>
@@ -1325,17 +1325,17 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
-        <v>1.46</v>
+        <v>1.6117999999999999</v>
       </c>
       <c r="E24" s="1">
         <v>7.16</v>
       </c>
       <c r="F24" s="1">
-        <f>E24*100 / D24</f>
-        <v>490.41095890410958</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>444.22384911279318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>50</v>
       </c>
@@ -1344,17 +1344,17 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
-        <v>3.14</v>
+        <v>3.347</v>
       </c>
       <c r="E25" s="1">
         <v>15</v>
       </c>
       <c r="F25" s="1">
-        <f>E25*100 / D25</f>
-        <v>477.70700636942672</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>448.16253361219003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1363,17 +1363,17 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <v>1.47</v>
+        <v>1.425</v>
       </c>
       <c r="E26" s="1">
         <v>7</v>
       </c>
       <c r="F26" s="1">
-        <f>E26*100 / D26</f>
-        <v>476.1904761904762</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>491.22807017543857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>14</v>
       </c>
@@ -1382,17 +1382,17 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <v>0.84489999999999998</v>
+        <v>0.90080000000000005</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
       </c>
       <c r="F27" s="1">
-        <f>E27*100 / D27</f>
-        <v>473.42880814297553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>444.04973357015984</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -1401,17 +1401,17 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
-        <v>1.31</v>
+        <v>1.3089999999999999</v>
       </c>
       <c r="E28" s="1">
         <v>6.05</v>
       </c>
       <c r="F28" s="1">
-        <f>E28*100 / D28</f>
-        <v>461.83206106870227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>462.18487394957987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1420,17 +1420,17 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
-        <v>1.34</v>
+        <v>1.3022</v>
       </c>
       <c r="E29" s="1">
         <v>5.92</v>
       </c>
       <c r="F29" s="1">
-        <f>E29*100 / D29</f>
-        <v>441.79104477611935</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>454.61526647212406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>46</v>
       </c>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
       <c r="E30" s="1">
         <v>11.6</v>
       </c>
       <c r="F30" s="1">
-        <f>E30*100 / D30</f>
-        <v>420.28985507246381</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>431.2267657992565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>20</v>
       </c>
@@ -1458,17 +1458,17 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
-        <v>1.35</v>
+        <v>1.4100999999999999</v>
       </c>
       <c r="E31" s="1">
         <v>5.5</v>
       </c>
       <c r="F31" s="1">
-        <f>E31*100 / D31</f>
-        <v>407.40740740740739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>390.04325934330899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -1477,17 +1477,17 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
-        <v>0.59299999999999997</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="E32" s="1">
         <v>2.38</v>
       </c>
       <c r="F32" s="1">
-        <f>E32*100 / D32</f>
-        <v>401.34907251264758</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>346.93877551020404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>17</v>
       </c>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
-        <v>0.89</v>
+        <v>0.88049999999999995</v>
       </c>
       <c r="E33" s="1">
         <v>3.33</v>
       </c>
       <c r="F33" s="1">
-        <f>E33*100 / D33</f>
-        <v>374.15730337078651</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>378.1942078364566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -1515,17 +1515,17 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E34" s="1">
         <v>7.17</v>
       </c>
       <c r="F34" s="1">
-        <f>E34*100 / D34</f>
-        <v>373.4375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <f t="shared" ref="F34:F65" si="1">E34*100 / D34</f>
+        <v>375.3926701570681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -1534,17 +1534,17 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="1">
-        <f>E35*100 / D35</f>
-        <v>350.87719298245617</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>357.78175313059029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>49</v>
       </c>
@@ -1553,17 +1553,17 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
-        <v>2.82</v>
+        <v>2.9977999999999998</v>
       </c>
       <c r="E36" s="1">
         <v>9.83</v>
       </c>
       <c r="F36" s="1">
-        <f>E36*100 / D36</f>
-        <v>348.58156028368796</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>327.90713189672431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44</v>
       </c>
@@ -1572,17 +1572,17 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1">
-        <v>2.69</v>
+        <v>2.73</v>
       </c>
       <c r="E37" s="1">
         <v>9</v>
       </c>
       <c r="F37" s="1">
-        <f>E37*100 / D37</f>
-        <v>334.57249070631968</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>329.67032967032969</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>77</v>
       </c>
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
-        <v>7.16</v>
+        <v>7.27</v>
       </c>
       <c r="E38" s="1">
         <v>23</v>
       </c>
       <c r="F38" s="1">
-        <f>E38*100 / D38</f>
-        <v>321.22905027932961</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>316.36863823933976</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45</v>
       </c>
@@ -1616,11 +1616,11 @@
         <v>8.43</v>
       </c>
       <c r="F39" s="1">
-        <f>E39*100 / D39</f>
+        <f t="shared" si="1"/>
         <v>307.66423357664229</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>48</v>
       </c>
@@ -1629,17 +1629,17 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
-        <v>2.77</v>
+        <v>3.98</v>
       </c>
       <c r="E40" s="1">
         <v>8.25</v>
       </c>
       <c r="F40" s="1">
-        <f>E40*100 / D40</f>
-        <v>297.83393501805057</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>207.28643216080403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>28</v>
       </c>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="E41" s="1">
         <v>4.5</v>
       </c>
       <c r="F41" s="1">
-        <f>E41*100 / D41</f>
-        <v>292.20779220779218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>261.62790697674421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>75</v>
       </c>
@@ -1667,17 +1667,17 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
-        <v>6.66</v>
+        <v>6.94</v>
       </c>
       <c r="E42" s="1">
         <v>19.38</v>
       </c>
       <c r="F42" s="1">
-        <f>E42*100 / D42</f>
-        <v>290.99099099099101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>279.25072046109511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -1686,17 +1686,17 @@
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1">
-        <v>0.57850000000000001</v>
+        <v>0.58109999999999995</v>
       </c>
       <c r="E43" s="1">
         <v>1.64</v>
       </c>
       <c r="F43" s="1">
-        <f>E43*100 / D43</f>
-        <v>283.49178910976661</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>282.22336947169163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>19</v>
       </c>
@@ -1705,17 +1705,17 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <v>1.18</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="E44" s="1">
         <v>3.33</v>
       </c>
       <c r="F44" s="1">
-        <f>E44*100 / D44</f>
-        <v>282.20338983050851</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>278.66108786610874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>58</v>
       </c>
@@ -1724,17 +1724,17 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="E45" s="1">
         <v>9.17</v>
       </c>
       <c r="F45" s="1">
-        <f>E45*100 / D45</f>
-        <v>278.72340425531917</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>280.42813455657495</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>55</v>
       </c>
@@ -1743,17 +1743,17 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="E46" s="1">
         <v>9.44</v>
       </c>
       <c r="F46" s="1">
-        <f>E46*100 / D46</f>
-        <v>276.0233918128655</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>274.41860465116281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -1762,17 +1762,17 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1">
-        <v>2.78</v>
+        <v>2.7069999999999999</v>
       </c>
       <c r="E47" s="1">
         <v>7.5</v>
       </c>
       <c r="F47" s="1">
-        <f>E47*100 / D47</f>
-        <v>269.78417266187051</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>277.05947543405983</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>57</v>
       </c>
@@ -1781,17 +1781,17 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="E48" s="1">
         <v>9</v>
       </c>
       <c r="F48" s="1">
-        <f>E48*100 / D48</f>
-        <v>266.27218934911241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>259.36599423631122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>68</v>
       </c>
@@ -1800,17 +1800,17 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1">
-        <v>4.58</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="E49" s="1">
         <v>12.17</v>
       </c>
       <c r="F49" s="1">
-        <f>E49*100 / D49</f>
-        <v>265.72052401746726</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>257.29386892177587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>10</v>
       </c>
@@ -1819,17 +1819,17 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
-        <v>0.66949999999999998</v>
+        <v>0.70540000000000003</v>
       </c>
       <c r="E50" s="1">
         <v>1.75</v>
       </c>
       <c r="F50" s="1">
-        <f>E50*100 / D50</f>
-        <v>261.38909634055267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>248.0861922313581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>54</v>
       </c>
@@ -1838,17 +1838,17 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1">
-        <v>3.53</v>
+        <v>3.39</v>
       </c>
       <c r="E51" s="1">
         <v>9</v>
       </c>
       <c r="F51" s="1">
-        <f>E51*100 / D51</f>
-        <v>254.957507082153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>265.48672566371681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>23</v>
       </c>
@@ -1857,17 +1857,17 @@
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="E52" s="1">
         <v>3.67</v>
       </c>
       <c r="F52" s="1">
-        <f>E52*100 / D52</f>
-        <v>253.10344827586206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>267.88321167883208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>78</v>
       </c>
@@ -1876,17 +1876,17 @@
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
-        <v>6.98</v>
+        <v>6.7</v>
       </c>
       <c r="E53" s="1">
         <v>16.8</v>
       </c>
       <c r="F53" s="1">
-        <f>E53*100 / D53</f>
-        <v>240.68767908309454</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>250.74626865671641</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>9</v>
       </c>
@@ -1895,17 +1895,17 @@
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1">
-        <v>0.63880000000000003</v>
+        <v>0.7319</v>
       </c>
       <c r="E54" s="1">
         <v>1.53</v>
       </c>
       <c r="F54" s="1">
-        <f>E54*100 / D54</f>
-        <v>239.51158422041325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>209.04495149610602</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>32</v>
       </c>
@@ -1914,17 +1914,17 @@
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="E55" s="1">
         <v>3.83</v>
       </c>
       <c r="F55" s="1">
-        <f>E55*100 / D55</f>
-        <v>237.88819875776397</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>247.09677419354838</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>59</v>
       </c>
@@ -1933,17 +1933,17 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1">
-        <v>3.41</v>
+        <v>3.05</v>
       </c>
       <c r="E56" s="1">
         <v>8</v>
       </c>
       <c r="F56" s="1">
-        <f>E56*100 / D56</f>
-        <v>234.6041055718475</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>262.29508196721315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>40</v>
       </c>
@@ -1952,17 +1952,17 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="E57" s="1">
         <v>5</v>
       </c>
       <c r="F57" s="1">
-        <f>E57*100 / D57</f>
-        <v>227.27272727272725</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>240.96385542168673</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43</v>
       </c>
@@ -1971,17 +1971,17 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1">
-        <v>2.4500000000000002</v>
+        <v>2.4550000000000001</v>
       </c>
       <c r="E58" s="1">
         <v>5.44</v>
       </c>
       <c r="F58" s="1">
-        <f>E58*100 / D58</f>
-        <v>222.0408163265306</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>221.58859470468431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>39</v>
       </c>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1">
-        <v>2.13</v>
+        <v>2.1850000000000001</v>
       </c>
       <c r="E59" s="1">
         <v>4.53</v>
       </c>
       <c r="F59" s="1">
-        <f>E59*100 / D59</f>
-        <v>212.67605633802819</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>207.32265446224255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>94</v>
       </c>
@@ -2009,17 +2009,17 @@
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1">
-        <v>13.56</v>
+        <v>14.65</v>
       </c>
       <c r="E60" s="1">
         <v>28.71</v>
       </c>
       <c r="F60" s="1">
-        <f>E60*100 / D60</f>
-        <v>211.72566371681415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>195.97269624573377</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>72</v>
       </c>
@@ -2028,17 +2028,17 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1">
-        <v>6.36</v>
+        <v>5.59</v>
       </c>
       <c r="E61" s="1">
         <v>13.45</v>
       </c>
       <c r="F61" s="1">
-        <f>E61*100 / D61</f>
-        <v>211.47798742138363</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>240.608228980322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>98</v>
       </c>
@@ -2047,17 +2047,17 @@
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1">
-        <v>14.97</v>
+        <v>15.06</v>
       </c>
       <c r="E62" s="1">
         <v>31.4</v>
       </c>
       <c r="F62" s="1">
-        <f>E62*100 / D62</f>
-        <v>209.75283901135603</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>208.49933598937582</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>7</v>
       </c>
@@ -2066,17 +2066,17 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1">
-        <v>0.62</v>
+        <v>0.61929999999999996</v>
       </c>
       <c r="E63" s="1">
         <v>1.3</v>
       </c>
       <c r="F63" s="1">
-        <f>E63*100 / D63</f>
-        <v>209.67741935483872</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>209.91441950589376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>74</v>
       </c>
@@ -2085,17 +2085,17 @@
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1">
-        <v>6.53</v>
+        <v>6.6</v>
       </c>
       <c r="E64" s="1">
         <v>13.63</v>
       </c>
       <c r="F64" s="1">
-        <f>E64*100 / D64</f>
-        <v>208.72894333843797</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>206.51515151515153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>67</v>
       </c>
@@ -2104,17 +2104,17 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1">
-        <v>4.375</v>
+        <v>4.75</v>
       </c>
       <c r="E65" s="1">
         <v>9</v>
       </c>
       <c r="F65" s="1">
-        <f>E65*100 / D65</f>
-        <v>205.71428571428572</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>189.47368421052633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>84</v>
       </c>
@@ -2123,17 +2123,17 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1">
-        <v>9.83</v>
+        <v>10.69</v>
       </c>
       <c r="E66" s="1">
         <v>20.170000000000002</v>
       </c>
       <c r="F66" s="1">
-        <f>E66*100 / D66</f>
-        <v>205.18819938962363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <f t="shared" ref="F66:F97" si="2">E66*100 / D66</f>
+        <v>188.68101028999067</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>24</v>
       </c>
@@ -2142,17 +2142,17 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E67" s="1">
         <v>2.75</v>
       </c>
       <c r="F67" s="1">
-        <f>E67*100 / D67</f>
-        <v>200.72992700729927</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>206.76691729323306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -2161,17 +2161,17 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1">
-        <v>3.87</v>
+        <v>3.7202000000000002</v>
       </c>
       <c r="E68" s="1">
         <v>7.75</v>
       </c>
       <c r="F68" s="1">
-        <f>E68*100 / D68</f>
-        <v>200.25839793281654</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>208.32213321864415</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>61</v>
       </c>
@@ -2180,17 +2180,17 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1">
-        <v>3.57</v>
+        <v>3.59</v>
       </c>
       <c r="E69" s="1">
         <v>6.6</v>
       </c>
       <c r="F69" s="1">
-        <f>E69*100 / D69</f>
-        <v>184.87394957983193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>183.84401114206128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>53</v>
       </c>
@@ -2199,17 +2199,17 @@
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="E70" s="1">
         <v>5.93</v>
       </c>
       <c r="F70" s="1">
-        <f>E70*100 / D70</f>
-        <v>183.59133126934984</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>184.73520249221184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>95</v>
       </c>
@@ -2218,17 +2218,17 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1">
-        <v>15.46</v>
+        <v>15.28</v>
       </c>
       <c r="E71" s="1">
         <v>28.25</v>
       </c>
       <c r="F71" s="1">
-        <f>E71*100 / D71</f>
-        <v>182.72962483829235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>184.88219895287958</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>83</v>
       </c>
@@ -2237,17 +2237,17 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1">
-        <v>8.4700000000000006</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="E72" s="1">
         <v>15.33</v>
       </c>
       <c r="F72" s="1">
-        <f>E72*100 / D72</f>
-        <v>180.99173553719007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>165.01614639397204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2256,17 +2256,17 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1">
-        <v>4.95</v>
+        <v>5.49</v>
       </c>
       <c r="E73" s="1">
         <v>8.57</v>
       </c>
       <c r="F73" s="1">
-        <f>E73*100 / D73</f>
-        <v>173.13131313131314</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>156.10200364298726</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>36</v>
       </c>
@@ -2275,17 +2275,17 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="E74" s="1">
         <v>3</v>
       </c>
       <c r="F74" s="1">
-        <f>E74*100 / D74</f>
-        <v>172.41379310344828</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>163.93442622950818</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>38</v>
       </c>
@@ -2294,17 +2294,17 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1">
-        <v>2.13</v>
+        <v>2.1949999999999998</v>
       </c>
       <c r="E75" s="1">
         <v>3.6</v>
       </c>
       <c r="F75" s="1">
-        <f>E75*100 / D75</f>
-        <v>169.01408450704227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>164.00911161731207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>69</v>
       </c>
@@ -2313,17 +2313,17 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.08</v>
       </c>
       <c r="E76" s="1">
         <v>8.25</v>
       </c>
       <c r="F76" s="1">
-        <f>E76*100 / D76</f>
-        <v>168.36734693877551</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>162.4015748031496</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>52</v>
       </c>
@@ -2332,17 +2332,17 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="E77" s="1">
         <v>4.75</v>
       </c>
       <c r="F77" s="1">
-        <f>E77*100 / D77</f>
-        <v>158.33333333333334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>177.90262172284645</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>81</v>
       </c>
@@ -2351,17 +2351,17 @@
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1">
-        <v>7.46</v>
+        <v>7.62</v>
       </c>
       <c r="E78" s="1">
         <v>11.67</v>
       </c>
       <c r="F78" s="1">
-        <f>E78*100 / D78</f>
-        <v>156.4343163538874</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>153.14960629921259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>56</v>
       </c>
@@ -2370,17 +2370,17 @@
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1">
-        <v>3.6150000000000002</v>
+        <v>3.4550000000000001</v>
       </c>
       <c r="E79" s="1">
         <v>5.6</v>
       </c>
       <c r="F79" s="1">
-        <f>E79*100 / D79</f>
-        <v>154.9100968188105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>162.08393632416787</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>93</v>
       </c>
@@ -2389,17 +2389,17 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1">
-        <v>14.35</v>
+        <v>14.47</v>
       </c>
       <c r="E80" s="1">
         <v>22</v>
       </c>
       <c r="F80" s="1">
-        <f>E80*100 / D80</f>
-        <v>153.31010452961672</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>152.03870076019351</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>97</v>
       </c>
@@ -2408,17 +2408,17 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1">
-        <v>15.51</v>
+        <v>15.39</v>
       </c>
       <c r="E81" s="1">
         <v>23.36</v>
       </c>
       <c r="F81" s="1">
-        <f>E81*100 / D81</f>
-        <v>150.61250805931658</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>151.78687459389212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>86</v>
       </c>
@@ -2427,17 +2427,17 @@
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1">
-        <v>10.97</v>
+        <v>10.51</v>
       </c>
       <c r="E82" s="1">
         <v>16.350000000000001</v>
       </c>
       <c r="F82" s="1">
-        <f>E82*100 / D82</f>
-        <v>149.04284412032817</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>155.56612749762135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>64</v>
       </c>
@@ -2446,17 +2446,17 @@
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1">
-        <v>4.03</v>
+        <v>3.56</v>
       </c>
       <c r="E83" s="1">
         <v>6</v>
       </c>
       <c r="F83" s="1">
-        <f>E83*100 / D83</f>
-        <v>148.8833746898263</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>168.53932584269663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>70</v>
       </c>
@@ -2465,17 +2465,17 @@
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1">
-        <v>4.8899999999999997</v>
+        <v>4.665</v>
       </c>
       <c r="E84" s="1">
         <v>7.04</v>
       </c>
       <c r="F84" s="1">
-        <f>E84*100 / D84</f>
-        <v>143.96728016359918</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>150.91103965702035</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>88</v>
       </c>
@@ -2484,17 +2484,17 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1">
-        <v>11.86</v>
+        <v>11.72</v>
       </c>
       <c r="E85" s="1">
         <v>15.57</v>
       </c>
       <c r="F85" s="1">
-        <f>E85*100 / D85</f>
-        <v>131.28161888701518</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>132.84982935153582</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2503,17 +2503,17 @@
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1">
-        <v>9.93</v>
+        <v>11.79</v>
       </c>
       <c r="E86" s="1">
         <v>13</v>
       </c>
       <c r="F86" s="1">
-        <f>E86*100 / D86</f>
-        <v>130.91641490433031</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>110.26293469041562</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>92</v>
       </c>
@@ -2522,17 +2522,17 @@
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1">
-        <v>13.06</v>
+        <v>13.34</v>
       </c>
       <c r="E87" s="1">
         <v>17</v>
       </c>
       <c r="F87" s="1">
-        <f>E87*100 / D87</f>
-        <v>130.16845329249617</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>127.43628185907046</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>90</v>
       </c>
@@ -2541,17 +2541,17 @@
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1">
-        <v>12.62</v>
+        <v>13.5</v>
       </c>
       <c r="E88" s="1">
         <v>15.67</v>
       </c>
       <c r="F88" s="1">
-        <f>E88*100 / D88</f>
-        <v>124.16798732171158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>116.07407407407408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>76</v>
       </c>
@@ -2560,17 +2560,17 @@
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1">
-        <v>6.86</v>
+        <v>7.02</v>
       </c>
       <c r="E89" s="1">
         <v>8.5</v>
       </c>
       <c r="F89" s="1">
-        <f>E89*100 / D89</f>
-        <v>123.9067055393586</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>121.08262108262109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>33</v>
       </c>
@@ -2579,17 +2579,17 @@
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="E90" s="1">
         <v>2.25</v>
       </c>
       <c r="F90" s="1">
-        <f>E90*100 / D90</f>
-        <v>123.62637362637362</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>122.28260869565217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>41</v>
       </c>
@@ -2598,17 +2598,17 @@
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1">
-        <v>2.4900000000000002</v>
+        <v>2.34</v>
       </c>
       <c r="E91" s="1">
         <v>3</v>
       </c>
       <c r="F91" s="1">
-        <f>E91*100 / D91</f>
-        <v>120.48192771084337</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>128.2051282051282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>99</v>
       </c>
@@ -2617,17 +2617,17 @@
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1">
-        <v>15.6</v>
+        <v>15.88</v>
       </c>
       <c r="E92" s="1">
         <v>18.54</v>
       </c>
       <c r="F92" s="1">
-        <f>E92*100 / D92</f>
-        <v>118.84615384615385</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>116.75062972292191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>60</v>
       </c>
@@ -2636,17 +2636,17 @@
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1">
-        <v>3.76</v>
+        <v>3.9</v>
       </c>
       <c r="E93" s="1">
         <v>4.45</v>
       </c>
       <c r="F93" s="1">
-        <f>E93*100 / D93</f>
-        <v>118.35106382978724</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>114.1025641025641</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>42</v>
       </c>
@@ -2655,17 +2655,17 @@
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1">
-        <v>2.4900000000000002</v>
+        <v>2.39</v>
       </c>
       <c r="E94" s="1">
         <v>2.78</v>
       </c>
       <c r="F94" s="1">
-        <f>E94*100 / D94</f>
-        <v>111.64658634538152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>116.31799163179916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>51</v>
       </c>
@@ -2674,17 +2674,17 @@
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1">
-        <v>3.31</v>
+        <v>3.145</v>
       </c>
       <c r="E95" s="1">
         <v>3.69</v>
       </c>
       <c r="F95" s="1">
-        <f>E95*100 / D95</f>
-        <v>111.48036253776435</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>117.32909379968203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>82</v>
       </c>
@@ -2693,17 +2693,17 @@
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1">
-        <v>8.33</v>
+        <v>8.14</v>
       </c>
       <c r="E96" s="1">
         <v>9.18</v>
       </c>
       <c r="F96" s="1">
-        <f>E96*100 / D96</f>
-        <v>110.20408163265306</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>112.77641277641277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>79</v>
       </c>
@@ -2712,17 +2712,17 @@
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1">
-        <v>7.85</v>
+        <v>7.79</v>
       </c>
       <c r="E97" s="1">
         <v>8.58</v>
       </c>
       <c r="F97" s="1">
-        <f>E97*100 / D97</f>
-        <v>109.29936305732484</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <f t="shared" si="2"/>
+        <v>110.14120667522465</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>80</v>
       </c>
@@ -2731,17 +2731,17 @@
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1">
-        <v>6.44</v>
+        <v>8.58</v>
       </c>
       <c r="E98" s="1">
         <v>6.5</v>
       </c>
       <c r="F98" s="1">
-        <f>E98*100 / D98</f>
-        <v>100.93167701863354</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <f t="shared" ref="F98:F129" si="3">E98*100 / D98</f>
+        <v>75.757575757575751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>87</v>
       </c>
@@ -2750,17 +2750,17 @@
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1">
-        <v>11.52</v>
+        <v>11.21</v>
       </c>
       <c r="E99" s="1">
         <v>11.53</v>
       </c>
       <c r="F99" s="1">
-        <f>E99*100 / D99</f>
-        <v>100.08680555555556</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <f t="shared" si="3"/>
+        <v>102.85459411239964</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -2775,11 +2775,11 @@
         <v>0.35</v>
       </c>
       <c r="F100" s="1">
-        <f>E100*100 / D100</f>
+        <f t="shared" si="3"/>
         <v>63.636363636363633</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>89</v>
       </c>
@@ -2788,72 +2788,72 @@
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1">
-        <v>11.86</v>
+        <v>13.81</v>
       </c>
       <c r="E101" s="1">
         <v>3.5</v>
       </c>
       <c r="F101" s="1">
-        <f>E101*100 / D101</f>
-        <v>29.510961214165263</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <f t="shared" si="3"/>
+        <v>25.343953656770456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>102</v>
       </c>

--- a/health-bio-vol-over-1.2m-over-0.5d.xlsx
+++ b/health-bio-vol-over-1.2m-over-0.5d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EricAhn/_Python/stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67450E9F-70CD-6A4F-BE44-2DD6B60512A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72B6928-5A49-DF46-84DD-BA28860B1912}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15800" yWindow="460" windowWidth="22600" windowHeight="23540" xr2:uid="{C2BB5CBF-AD1D-0148-B1EC-F37D97BAFAE6}"/>
   </bookViews>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE076B2A-77DE-B442-A822-F5E20F96476A}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D101"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
